--- a/DDAf_2024_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF907026-654B-48BA-B186-12699394B0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6BFE77-EF71-4A0F-96F6-7329F4597558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B014EC2F-19AE-4B56-92AA-FBF2A1E69924}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75D3099D-F88F-43BE-970C-E14A4F19421C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5856A04E-C0B7-419A-B912-2C456393BF21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A8D3C-6F06-47CE-9D18-C3F581ED2D2C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1585,15 +1585,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="119" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>62684.087845446797</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>3687.9775656222901</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1994.70685629331</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1416.8873774644701</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>7678.76263782768</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>16869.4735066883</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>8756.7874428009309</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>288955.65704914799</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>24537.3231194283</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>21109.9875470031</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>34</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>437691.65094772301</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2230.42240131277</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>21235.9035577861</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1254.69546507206</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>6763.2893297984801</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>13087.981187879001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>9136.1453166624597</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>48</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>5166.4741403895296</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>13313.5875441344</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>329.741629534141</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>34</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>72518.240572568902</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>55</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>334.51303845395898</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>1360.0150534223999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>53374.3806453297</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>63</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>74970.1819183599</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>7539.5835739548602</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>67</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>11139.9790086791</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>69</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>7367.88143513467</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1061.5117933157101</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>75</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>3101.9679404604899</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>77</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>65357.697615380399</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>79</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>29492.744945409901</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>81</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>21552.248865500798</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>34</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>276652.705833402</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>84</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>102486.35444546099</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>86</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>380558.01130466699</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>88</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>90</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>4969.1278146071299</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>92</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>98492.693273547993</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>94</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>37323.588811300098</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>34</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>623829.77564958297</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>97</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>8900.6717965117405</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>99</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>10935.1882029184</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>101</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>3060.2349600034399</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>103</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>36536.7709025636</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>105</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>1699.58916061987</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>107</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>63009.816386695697</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>109</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>6971.6143466714002</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>111</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1359.7198531556101</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>113</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1870.494778</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>115</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>9961.4056422325993</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>117</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>7660.9720356712696</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>119</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>157454.027721069</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>121</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>20220.445761171501</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>123</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>3291.6452861809098</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>125</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>5408.5796419982398</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="44" t="s">
         <v>127</v>
@@ -3886,7 +3886,7 @@
         <v>338341.17647546303</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="73"/>
       <c r="B62" s="74" t="s">
         <v>128</v>
@@ -3922,7 +3922,7 @@
         <v>1749033.54947874</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="73"/>
       <c r="B63" s="81" t="s">
         <v>129</v>
@@ -3958,7 +3958,7 @@
         <v>89784453.244929299</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="86"/>
       <c r="B64" s="87" t="s">
         <v>130</v>
@@ -3994,7 +3994,7 @@
         <v>3604336.6881547798</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="86"/>
       <c r="B65" s="81" t="s">
         <v>131</v>
@@ -4030,7 +4030,7 @@
         <v>17824260.647551298</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86"/>
       <c r="B66" s="100" t="s">
         <v>132</v>
@@ -4066,7 +4066,7 @@
         <v>91533486.794407994</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="86"/>
       <c r="B67" s="81" t="s">
         <v>133</v>
@@ -4102,7 +4102,7 @@
         <v>728626.94094202598</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="86"/>
       <c r="B68" s="81" t="s">
         <v>134</v>
@@ -4138,7 +4138,7 @@
         <v>929824.07844370895</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="86"/>
       <c r="B69" s="81" t="s">
         <v>135</v>
@@ -4174,7 +4174,7 @@
         <v>147851.59282284099</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="86"/>
       <c r="B70" s="81" t="s">
         <v>136</v>
@@ -4210,7 +4210,7 @@
         <v>142570.20985315001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="86"/>
       <c r="B71" s="81" t="s">
         <v>137</v>
@@ -4246,7 +4246,7 @@
         <v>338341.17647546303</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="86"/>
       <c r="B72" s="81" t="s">
         <v>138</v>
@@ -4282,7 +4282,7 @@
         <v>219716.49203845399</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="86"/>
       <c r="B73" s="81" t="s">
         <v>139</v>
@@ -4318,7 +4318,7 @@
         <v>496396.12862419902</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="86"/>
       <c r="B74" s="81" t="s">
         <v>139</v>
@@ -4354,7 +4354,7 @@
         <v>243271.76434491601</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="86"/>
       <c r="B75" s="81" t="s">
         <v>140</v>
@@ -4390,7 +4390,7 @@
         <v>84303.257794828198</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="86"/>
       <c r="B76" s="107" t="s">
         <v>141</v>
@@ -4426,7 +4426,7 @@
         <v>2127676.8522689999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="86"/>
       <c r="B77" s="81" t="s">
         <v>142</v>
@@ -4462,7 +4462,7 @@
         <v>2583630.3082245998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="86"/>
       <c r="B78" s="81" t="s">
         <v>142</v>
@@ -4498,7 +4498,7 @@
         <v>15433947.027052799</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="86"/>
       <c r="B79" s="100" t="s">
         <v>143</v>
@@ -4534,7 +4534,7 @@
         <v>67329988.707136393</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="86"/>
       <c r="B80" s="81" t="s">
         <v>144</v>
@@ -4570,7 +4570,7 @@
         <v>214633.10520818</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="86"/>
       <c r="B81" s="81" t="s">
         <v>145</v>
@@ -4606,7 +4606,7 @@
         <v>1526944.4608110599</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="86"/>
       <c r="B82" s="81" t="s">
         <v>146</v>
@@ -4642,7 +4642,7 @@
         <v>1534400.4442705601</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="86"/>
       <c r="B83" s="81" t="s">
         <v>147</v>
@@ -4678,7 +4678,7 @@
         <v>88257508.784118205</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="86"/>
       <c r="B84" s="107" t="s">
         <v>148</v>
@@ -4714,7 +4714,7 @@
         <v>244414.143333899</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="86"/>
       <c r="B85" s="112" t="s">
         <v>149</v>
@@ -4750,7 +4750,7 @@
         <v>16367.93357938</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="86"/>
       <c r="B86" s="81" t="s">
         <v>150</v>
@@ -4786,7 +4786,7 @@
         <v>1172537.43160075</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="86"/>
       <c r="B87" s="81" t="s">
         <v>151</v>
@@ -4822,7 +4822,7 @@
         <v>4049908.91300658</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="86"/>
       <c r="B88" s="81" t="s">
         <v>152</v>
@@ -4858,7 +4858,7 @@
         <v>331020.46275077399</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="86"/>
       <c r="B89" s="81" t="s">
         <v>153</v>
@@ -4894,7 +4894,7 @@
         <v>17943632.235217799</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="86"/>
       <c r="B90" s="100" t="s">
         <v>154</v>
@@ -4930,7 +4930,7 @@
         <v>67632365.062128499</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="86"/>
       <c r="B91" s="81" t="s">
         <v>155</v>
@@ -4966,7 +4966,7 @@
         <v>405631.31606202101</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="86"/>
       <c r="B92" s="81" t="s">
         <v>156</v>
@@ -5002,7 +5002,7 @@
         <v>256544.91144506799</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="86"/>
       <c r="B93" s="81" t="s">
         <v>157</v>
@@ -5038,7 +5038,7 @@
         <v>17285.700283142</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="86"/>
       <c r="B94" s="81" t="s">
         <v>158</v>
@@ -5074,7 +5074,7 @@
         <v>803023.08775111602</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="86"/>
       <c r="B95" s="81" t="s">
         <v>159</v>
@@ -5110,7 +5110,7 @@
         <v>184628.09706706999</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="86"/>
       <c r="B96" s="81" t="s">
         <v>160</v>
@@ -5146,7 +5146,7 @@
         <v>221808.52608988</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="86"/>
       <c r="B97" s="107" t="s">
         <v>161</v>
@@ -5182,7 +5182,7 @@
         <v>595491.84503274201</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="86"/>
       <c r="B98" s="100" t="s">
         <v>162</v>
@@ -5218,7 +5218,7 @@
         <v>811434.30046880594</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="113"/>
       <c r="B99" s="114"/>
       <c r="C99" s="85"/>
@@ -5232,7 +5232,7 @@
       <c r="K99" s="85"/>
       <c r="L99" s="85"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="K100" s="115"/>
       <c r="L100" s="115"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="K101" s="115"/>
       <c r="L101" s="115"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="K102" s="115"/>
       <c r="L102" s="115"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="K103" s="115"/>
       <c r="L103" s="115"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="K104" s="115"/>
       <c r="L104" s="115"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C105" s="115"/>
       <c r="D105" s="115"/>
       <c r="E105" s="115"/>
@@ -5319,7 +5319,7 @@
       <c r="K105" s="115"/>
       <c r="L105" s="115"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B106" s="116"/>
       <c r="C106" s="115"/>
       <c r="D106" s="115"/>
@@ -5332,7 +5332,7 @@
       <c r="K106" s="115"/>
       <c r="L106" s="115"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="117" t="s">
         <v>168</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="K107" s="115"/>
       <c r="L107" s="115"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="117"/>
       <c r="C108" s="115"/>
       <c r="D108" s="115"/>
@@ -5360,7 +5360,7 @@
       <c r="K108" s="115"/>
       <c r="L108" s="115"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>170</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="K109" s="115"/>
       <c r="L109" s="115"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>171</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="K110" s="115"/>
       <c r="L110" s="115"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="120" t="s">
         <v>172</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="K111" s="115"/>
       <c r="L111" s="115"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="K112" s="115"/>
       <c r="L112" s="115"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="115"/>
       <c r="D113" s="115"/>
@@ -5433,7 +5433,7 @@
       <c r="K113" s="115"/>
       <c r="L113" s="115"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="115"/>
       <c r="D114" s="115"/>
@@ -5446,7 +5446,7 @@
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="116"/>
       <c r="C115" s="118"/>
       <c r="D115" s="118"/>
@@ -5459,7 +5459,7 @@
       <c r="K115" s="118"/>
       <c r="L115" s="118"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="116"/>
       <c r="C116" s="118"/>
       <c r="D116" s="118"/>
@@ -5474,11 +5474,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1CC018E8-88F1-4986-AF22-59728375A26D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F2EB1A80-BB12-4D75-8BBF-28620DFB187E}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{74A8CBC3-FAA3-4D64-B630-F4FBDD70669C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{778D84DE-81E4-40FC-B30A-232BDC001F07}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{38487684-F114-43D0-B09D-B1516E2654E4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F5C0F18B-8282-479F-8778-5C5BC783F296}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B6C5D0DC-43E6-4AA4-9222-DDB28BDD0C1A}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C609D85B-FCB2-4967-A3E1-9A271E4A4105}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B0975CC7-F79C-4DFE-862C-B361237898AE}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{C453A21C-3F5F-44FD-8C6B-31AE1BBDD30A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6BFE77-EF71-4A0F-96F6-7329F4597558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D9F42E-0C2B-42EE-BD0E-32462A6E427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75D3099D-F88F-43BE-970C-E14A4F19421C}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EA8D3692-26B7-43EE-AA94-94B78915F4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -694,17 +694,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1257,11 +1257,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1577,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A8D3C-6F06-47CE-9D18-C3F581ED2D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BBF445-40F4-4245-9619-E8BB87789679}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1589,7 +1589,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="120" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5320,7 +5320,6 @@
       <c r="L105" s="115"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="116"/>
       <c r="C106" s="115"/>
       <c r="D106" s="115"/>
       <c r="E106" s="115"/>
@@ -5333,7 +5332,7 @@
       <c r="L106" s="115"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="117" t="s">
+      <c r="B107" s="116" t="s">
         <v>168</v>
       </c>
       <c r="C107" s="115"/>
@@ -5348,7 +5347,7 @@
       <c r="L107" s="115"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="117"/>
+      <c r="B108" s="116"/>
       <c r="C108" s="115"/>
       <c r="D108" s="115"/>
       <c r="E108" s="115"/>
@@ -5391,7 +5390,7 @@
       <c r="L110" s="115"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="117" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="115"/>
@@ -5406,7 +5405,7 @@
       <c r="L111" s="115"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="117" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="115"/>
@@ -5447,38 +5446,38 @@
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="116"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="118"/>
-      <c r="F115" s="118"/>
-      <c r="G115" s="118"/>
-      <c r="H115" s="118"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="118"/>
-      <c r="K115" s="118"/>
-      <c r="L115" s="118"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="119"/>
+      <c r="D115" s="119"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
+      <c r="G115" s="119"/>
+      <c r="H115" s="119"/>
+      <c r="I115" s="119"/>
+      <c r="J115" s="119"/>
+      <c r="K115" s="119"/>
+      <c r="L115" s="119"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="116"/>
-      <c r="C116" s="118"/>
-      <c r="D116" s="118"/>
-      <c r="E116" s="118"/>
-      <c r="F116" s="118"/>
-      <c r="G116" s="118"/>
-      <c r="H116" s="118"/>
-      <c r="I116" s="118"/>
-      <c r="J116" s="118"/>
-      <c r="K116" s="118"/>
-      <c r="L116" s="118"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="119"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="119"/>
+      <c r="F116" s="119"/>
+      <c r="G116" s="119"/>
+      <c r="H116" s="119"/>
+      <c r="I116" s="119"/>
+      <c r="J116" s="119"/>
+      <c r="K116" s="119"/>
+      <c r="L116" s="119"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F5C0F18B-8282-479F-8778-5C5BC783F296}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B6C5D0DC-43E6-4AA4-9222-DDB28BDD0C1A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C609D85B-FCB2-4967-A3E1-9A271E4A4105}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{B0975CC7-F79C-4DFE-862C-B361237898AE}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{C453A21C-3F5F-44FD-8C6B-31AE1BBDD30A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8263228D-81E0-4A8D-AF28-D71654404BEA}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BE89E1B2-C0A3-4EA1-B734-38B649BF6C12}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{2BEB1835-1EC3-423A-829A-77A7334AEC16}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B251AEEA-ADD3-4D32-B559-6B86FAF3C485}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{59843A1B-2AE8-4D21-94F3-CD5212583E6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D9F42E-0C2B-42EE-BD0E-32462A6E427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{043F0794-FB72-4FD1-AC84-748D4B787914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EA8D3692-26B7-43EE-AA94-94B78915F4CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C95BA9B0-2BFE-47C2-9DA3-7F3F1B1A80D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="175">
   <si>
     <t>Tableau 16 : Finances publiques</t>
   </si>
@@ -462,13 +462,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1577,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BBF445-40F4-4245-9619-E8BB87789679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7035CF-4E58-420E-8767-B9CE8F80D236}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4321,7 +4327,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="86"/>
       <c r="B74" s="81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="94">
         <v>32.139318369111301</v>
@@ -4357,7 +4363,7 @@
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="86"/>
       <c r="B75" s="81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="82">
         <v>23.804418131578402</v>
@@ -4393,7 +4399,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="86"/>
       <c r="B76" s="107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" s="108">
         <v>16.945898662942501</v>
@@ -4429,7 +4435,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="86"/>
       <c r="B77" s="81" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="94">
         <v>33.731385688854303</v>
@@ -4465,7 +4471,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="86"/>
       <c r="B78" s="81" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78" s="94">
         <v>45.924575730669901</v>
@@ -4501,7 +4507,7 @@
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="86"/>
       <c r="B79" s="100" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C79" s="101">
         <v>36.682678953546997</v>
@@ -4537,7 +4543,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="86"/>
       <c r="B80" s="81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C80" s="94">
         <v>31.3914907403325</v>
@@ -4573,7 +4579,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="86"/>
       <c r="B81" s="81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C81" s="94">
         <v>29.286611992365401</v>
@@ -4609,7 +4615,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="86"/>
       <c r="B82" s="81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C82" s="94">
         <v>17.061863501622302</v>
@@ -4645,7 +4651,7 @@
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="86"/>
       <c r="B83" s="81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C83" s="82">
         <v>30.9734697811292</v>
@@ -4681,7 +4687,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="86"/>
       <c r="B84" s="107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C84" s="108">
         <v>13.857567547054099</v>
@@ -4717,7 +4723,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="86"/>
       <c r="B85" s="112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C85" s="94">
         <v>12.756935169298099</v>
@@ -4753,7 +4759,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="86"/>
       <c r="B86" s="81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C86" s="94">
         <v>17.251367473837</v>
@@ -4789,7 +4795,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="86"/>
       <c r="B87" s="81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C87" s="94">
         <v>18.783720684098501</v>
@@ -4825,7 +4831,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="86"/>
       <c r="B88" s="81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C88" s="94">
         <v>33.181896694943298</v>
@@ -4861,7 +4867,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="86"/>
       <c r="B89" s="81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C89" s="94">
         <v>27.110579547205301</v>
@@ -4897,7 +4903,7 @@
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="86"/>
       <c r="B90" s="100" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C90" s="101">
         <v>37.232126821864597</v>
@@ -4933,7 +4939,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="86"/>
       <c r="B91" s="81" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C91" s="94">
         <v>15.8973689059811</v>
@@ -4969,7 +4975,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="86"/>
       <c r="B92" s="81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C92" s="94">
         <v>12.1785369948316</v>
@@ -5005,7 +5011,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="86"/>
       <c r="B93" s="81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" s="94">
         <v>25.1665100192509</v>
@@ -5041,7 +5047,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="86"/>
       <c r="B94" s="81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" s="94">
         <v>18.155773744892301</v>
@@ -5077,7 +5083,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="86"/>
       <c r="B95" s="81" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" s="94">
         <v>16.522835893286299</v>
@@ -5113,7 +5119,7 @@
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="86"/>
       <c r="B96" s="81" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C96" s="82">
         <v>22.5302846073998</v>
@@ -5149,7 +5155,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="86"/>
       <c r="B97" s="107" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C97" s="108">
         <v>16.133153526839099</v>
@@ -5185,7 +5191,7 @@
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="86"/>
       <c r="B98" s="100" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C98" s="101">
         <v>11.9087245252576</v>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C100" s="115"/>
       <c r="D100" s="115"/>
@@ -5249,7 +5255,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C101" s="115"/>
       <c r="D101" s="115"/>
@@ -5264,7 +5270,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C102" s="115"/>
       <c r="D102" s="115"/>
@@ -5279,7 +5285,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C103" s="115"/>
       <c r="D103" s="115"/>
@@ -5294,7 +5300,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C104" s="115"/>
       <c r="D104" s="115"/>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="116" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C107" s="115"/>
       <c r="D107" s="115"/>
@@ -5361,7 +5367,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C109" s="115"/>
       <c r="D109" s="115"/>
@@ -5376,7 +5382,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C110" s="115"/>
       <c r="D110" s="115"/>
@@ -5391,7 +5397,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="117" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C111" s="115"/>
       <c r="D111" s="115"/>
@@ -5406,7 +5412,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C112" s="115"/>
       <c r="D112" s="115"/>
@@ -5473,11 +5479,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8263228D-81E0-4A8D-AF28-D71654404BEA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BE89E1B2-C0A3-4EA1-B734-38B649BF6C12}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{2BEB1835-1EC3-423A-829A-77A7334AEC16}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{B251AEEA-ADD3-4D32-B559-6B86FAF3C485}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{59843A1B-2AE8-4D21-94F3-CD5212583E6B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D89E23D3-1AD9-4F70-BA36-E27BB231A066}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F8E2FF97-FB2C-475B-8F87-D32A70C30C3A}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{7BF53370-418C-4FEA-82BB-AABF0711200F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{993605D2-750D-4B01-B36F-CD4459F71E97}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6493347F-CEF3-4E85-9B18-DF6227834982}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
